--- a/offline/variants_data/coldwar/Cold_War.xlsx
+++ b/offline/variants_data/coldwar/Cold_War.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="zones" sheetId="1" state="visible" r:id="rId2"/>
@@ -739,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H99" activeCellId="0" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2268,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>28</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2421,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2720,7 +2720,7 @@
       <c r="A27" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
